--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -472,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -484,6 +493,7 @@
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,205 +515,238 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -725,1225 +768,1411 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,52 +32,55 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Decreto di naturalizzazione straniero</t>
+  </si>
+  <si>
+    <t>Documentazione comprovante la prestazione del servizio militare</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Decreto di naturalizzazione straniero</t>
-  </si>
-  <si>
-    <t>Documentazione comprovante la prestazione del servizio militare</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -769,1410 +772,1410 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -332,7 +332,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -496,7 +496,7 @@
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -188,6 +188,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -484,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1128,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>36</v>
@@ -1220,7 +1229,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
@@ -1252,7 +1261,7 @@
         <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>27</v>
@@ -1275,7 +1284,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -1298,7 +1307,7 @@
         <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -1329,22 +1338,22 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>27</v>
@@ -1352,19 +1361,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1375,19 +1384,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1398,16 +1407,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>88</v>
@@ -1421,7 +1430,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>89</v>
@@ -1430,7 +1439,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>90</v>
@@ -1444,7 +1453,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>91</v>
@@ -1453,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>92</v>
@@ -1467,7 +1476,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>93</v>
@@ -1476,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>94</v>
@@ -1490,16 +1499,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>96</v>
@@ -1513,7 +1522,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>97</v>
@@ -1522,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>98</v>
@@ -1536,7 +1545,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
@@ -1545,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>100</v>
@@ -1559,7 +1568,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>101</v>
@@ -1568,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>102</v>
@@ -1582,306 +1591,306 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>116</v>
@@ -1890,90 +1899,90 @@
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>120</v>
@@ -1982,21 +1991,21 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>121</v>
@@ -2005,176 +2014,245 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -1620,7 +1620,7 @@
         <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>87</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -341,7 +341,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -401,7 +401,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -505,7 +505,7 @@
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -401,7 +401,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>Firmatario</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -401,7 +401,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -246,6 +246,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Dati Generali</t>
@@ -493,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1361,19 +1385,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1384,19 +1408,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1431,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1454,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1477,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1500,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1499,16 +1523,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>96</v>
@@ -1522,16 +1546,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>98</v>
@@ -1545,16 +1569,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>100</v>
@@ -1568,16 +1592,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>102</v>
@@ -1591,16 +1615,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>104</v>
@@ -1614,19 +1638,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1637,622 +1661,714 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -140,6 +140,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -386,10 +392,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -517,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -977,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>36</v>
@@ -1069,7 +1072,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>36</v>
@@ -1101,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>27</v>
@@ -1124,7 +1127,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>27</v>
@@ -1147,7 +1150,7 @@
         <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
@@ -1170,7 +1173,7 @@
         <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>27</v>
@@ -1184,7 +1187,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>36</v>
@@ -1276,7 +1279,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>36</v>
@@ -1308,7 +1311,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -1331,7 +1334,7 @@
         <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -1354,7 +1357,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -1400,7 +1403,7 @@
         <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>27</v>
@@ -1477,19 +1480,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1503,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1526,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1546,16 +1549,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>98</v>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
@@ -1578,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>100</v>
@@ -1592,7 +1595,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>101</v>
@@ -1601,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>102</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>103</v>
@@ -1624,7 +1627,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>104</v>
@@ -1638,16 +1641,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>106</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>107</v>
@@ -1670,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>108</v>
@@ -1684,7 +1687,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>109</v>
@@ -1693,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>110</v>
@@ -1707,7 +1710,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
@@ -1716,7 +1719,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>112</v>
@@ -1730,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,191 +1756,191 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>122</v>
@@ -1946,21 +1949,21 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>123</v>
@@ -1969,378 +1972,378 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,24 +2354,70 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -116,6 +116,18 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Riassunto della dichiarazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>riassuntoDichiarazione</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
@@ -212,6 +224,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
@@ -278,16 +296,22 @@
     <t>nomeComuneAIRE</t>
   </si>
   <si>
-    <t>Dati Generali</t>
-  </si>
-  <si>
-    <t>Riassunto della dichiarazione</t>
-  </si>
-  <si>
-    <t>evento.datiEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>riassuntoDichiarazione</t>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Dati Perdita Cittadinanza</t>
@@ -416,22 +440,7 @@
     <t>Indirizzo di residenza</t>
   </si>
   <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
     <t>Firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -520,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -911,7 +920,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>36</v>
@@ -920,7 +929,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>27</v>
@@ -928,22 +937,22 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
@@ -951,19 +960,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -974,19 +983,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -997,19 +1006,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1020,19 +1029,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1043,19 +1052,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1066,19 +1075,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1089,19 +1098,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1112,22 +1121,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>27</v>
@@ -1135,22 +1144,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
@@ -1158,22 +1167,22 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>27</v>
@@ -1181,22 +1190,22 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>27</v>
@@ -1204,22 +1213,22 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
@@ -1227,19 +1236,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1250,19 +1259,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1273,19 +1282,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1296,19 +1305,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1319,19 +1328,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
@@ -1342,19 +1351,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1365,19 +1374,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
@@ -1388,22 +1397,22 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>27</v>
@@ -1411,22 +1420,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>27</v>
@@ -1434,22 +1443,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>27</v>
@@ -1457,19 +1466,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1489,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1503,16 +1512,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>91</v>
@@ -1526,19 +1535,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1558,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1581,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1604,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1627,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1641,16 +1650,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>106</v>
@@ -1664,16 +1673,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>108</v>
@@ -1687,16 +1696,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>110</v>
@@ -1710,16 +1719,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>112</v>
@@ -1733,16 +1742,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>114</v>
@@ -1756,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1779,645 +1788,760 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="F85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2205,7 +2211,7 @@
         <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2214,7 +2220,7 @@
         <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>126</v>
@@ -2228,7 +2234,7 @@
         <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2237,10 +2243,10 @@
         <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>127</v>
@@ -2251,7 +2257,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2260,10 +2266,10 @@
         <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>127</v>
@@ -2274,7 +2280,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2283,10 +2289,10 @@
         <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>127</v>
@@ -2297,7 +2303,7 @@
         <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2306,10 +2312,10 @@
         <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>127</v>
@@ -2320,7 +2326,7 @@
         <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2329,10 +2335,10 @@
         <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>127</v>
@@ -2343,7 +2349,7 @@
         <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2352,10 +2358,10 @@
         <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>127</v>
@@ -2366,7 +2372,7 @@
         <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2375,7 +2381,7 @@
         <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>126</v>
@@ -2389,19 +2395,19 @@
         <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>127</v>
@@ -2412,7 +2418,7 @@
         <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
@@ -2421,7 +2427,7 @@
         <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2435,7 +2441,7 @@
         <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
@@ -2444,7 +2450,7 @@
         <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>144</v>
@@ -2464,36 +2470,36 @@
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>27</v>
@@ -2501,22 +2507,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>27</v>
@@ -2524,7 +2530,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>151</v>
@@ -2542,6 +2548,29 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,81 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Dati Perdita Cittadinanza</t>
@@ -535,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1639,33 +1714,33 @@
         <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>106</v>
@@ -1674,21 +1749,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>108</v>
@@ -1697,21 +1772,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>110</v>
@@ -1720,21 +1795,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>112</v>
@@ -1743,403 +1818,403 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>64</v>
@@ -2148,429 +2223,705 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -2519,7 +2519,7 @@
         <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>150</v>
@@ -2542,7 +2542,7 @@
         <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>150</v>
@@ -2551,7 +2551,7 @@
         <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>152</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_028.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -610,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1139,7 +1151,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>40</v>
@@ -1162,7 +1174,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
@@ -1208,7 +1220,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>40</v>
@@ -1231,7 +1243,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>40</v>
@@ -1240,7 +1252,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
@@ -1309,7 +1321,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
@@ -1323,7 +1335,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>40</v>
@@ -1332,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>27</v>
@@ -1346,7 +1358,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>40</v>
@@ -1355,7 +1367,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>27</v>
@@ -1369,7 +1381,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>40</v>
@@ -1392,7 +1404,7 @@
         <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>40</v>
@@ -1424,7 +1436,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -1539,7 +1551,7 @@
         <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>27</v>
@@ -1562,7 +1574,7 @@
         <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>27</v>
@@ -1585,7 +1597,7 @@
         <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>27</v>
@@ -1645,7 +1657,7 @@
         <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>40</v>
@@ -1668,7 +1680,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>40</v>
@@ -1708,76 +1720,76 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>109</v>
@@ -1786,7 +1798,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>110</v>
@@ -1795,12 +1807,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
@@ -1809,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>112</v>
@@ -1818,12 +1830,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>113</v>
@@ -1832,113 +1844,113 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>121</v>
@@ -1947,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>122</v>
@@ -1956,12 +1968,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>123</v>
@@ -1970,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>124</v>
@@ -1979,70 +1991,70 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2053,16 +2065,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>135</v>
@@ -2076,7 +2088,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>136</v>
@@ -2085,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>137</v>
@@ -2099,7 +2111,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>138</v>
@@ -2108,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>139</v>
@@ -2122,16 +2134,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>141</v>
@@ -2145,16 +2157,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>143</v>
@@ -2168,7 +2180,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>144</v>
@@ -2177,7 +2189,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>145</v>
@@ -2191,7 +2203,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>146</v>
@@ -2200,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>147</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2237,398 +2249,398 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G78" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>163</v>
@@ -2637,21 +2649,21 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>164</v>
@@ -2660,44 +2672,44 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>166</v>
@@ -2706,21 +2718,21 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>167</v>
@@ -2729,21 +2741,21 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>168</v>
@@ -2752,176 +2764,268 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>27</v>
       </c>
     </row>
